--- a/inputs/Eurostat_inflation_rates.xlsx
+++ b/inputs/Eurostat_inflation_rates.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
   <si>
     <t xml:space="preserve">HICP - annual data (average index and rate of change) [prc_hicp_aind$defaultview]</t>
   </si>
@@ -348,10 +348,10 @@
     <t xml:space="preserve">GEO (Labels)</t>
   </si>
   <si>
+    <t xml:space="preserve">Special value</t>
+  </si>
+  <si>
     <t xml:space="preserve">:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special value</t>
   </si>
   <si>
     <t xml:space="preserve">not available</t>
@@ -698,9 +698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>530280</xdr:colOff>
+      <xdr:colOff>529920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -714,7 +714,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657600" cy="628200"/>
+          <a:ext cx="12657240" cy="627840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1513,14 +1513,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J37" activeCellId="0" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="W49" activeCellId="0" sqref="W49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="2" style="1" width="9.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16356" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16356" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,9 +1758,7 @@
       <c r="A11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="18" t="n">
         <v>1.7</v>
       </c>
@@ -1850,21 +1848,11 @@
       <c r="A12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
         <v>3.6</v>
       </c>
@@ -1942,21 +1930,11 @@
       <c r="A13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="18" t="n">
         <v>3.2</v>
       </c>
@@ -2014,29 +1992,17 @@
       <c r="Y13" s="18" t="n">
         <v>1.5</v>
       </c>
-      <c r="Z13" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA13" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB13" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC13" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD13" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="B14" s="20"/>
       <c r="C14" s="21" t="n">
         <v>1.6</v>
       </c>
@@ -2126,21 +2092,11 @@
       <c r="A15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="18" t="n">
         <v>2.4</v>
       </c>
@@ -2218,9 +2174,7 @@
       <c r="A16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="B16" s="20"/>
       <c r="C16" s="21" t="n">
         <v>1.7</v>
       </c>
@@ -2402,12 +2356,8 @@
       <c r="A18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="21" t="n">
         <v>18.7</v>
       </c>
@@ -3230,15 +3180,9 @@
       <c r="A27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="18" t="n">
         <v>3.7</v>
       </c>
@@ -3414,9 +3358,7 @@
       <c r="A29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="B29" s="17"/>
       <c r="C29" s="18" t="n">
         <v>3.3</v>
       </c>
@@ -3506,9 +3448,7 @@
       <c r="A30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="B30" s="20"/>
       <c r="C30" s="21" t="n">
         <v>8.1</v>
       </c>
@@ -3874,9 +3814,7 @@
       <c r="A34" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="B34" s="20"/>
       <c r="C34" s="21" t="n">
         <v>3.9</v>
       </c>
@@ -3966,9 +3904,7 @@
       <c r="A35" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="B35" s="17"/>
       <c r="C35" s="18" t="n">
         <v>1.9</v>
       </c>
@@ -4150,9 +4086,7 @@
       <c r="A37" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="B37" s="17"/>
       <c r="C37" s="19" t="n">
         <v>15</v>
       </c>
@@ -4794,9 +4728,7 @@
       <c r="A44" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="B44" s="20"/>
       <c r="C44" s="21" t="n">
         <v>1.7</v>
       </c>
@@ -5070,36 +5002,16 @@
       <c r="A47" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
       <c r="L47" s="19" t="n">
         <v>1</v>
       </c>
@@ -5234,86 +5146,36 @@
       <c r="Y48" s="21" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z48" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA48" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB48" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC48" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD48" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="M49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="N49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="O49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="P49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="R49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="S49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="T49" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="U49" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
       <c r="V49" s="18" t="n">
         <v>-0.1</v>
       </c>
@@ -5346,36 +5208,16 @@
       <c r="A50" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
       <c r="L50" s="21" t="n">
         <v>3.7</v>
       </c>
@@ -5438,69 +5280,27 @@
       <c r="A51" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="M51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="N51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="O51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="P51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="R51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="S51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="T51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="U51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="V51" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
       <c r="W51" s="18" t="n">
         <v>3.2</v>
       </c>
@@ -5530,39 +5330,17 @@
       <c r="A52" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="K52" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="L52" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
       <c r="M52" s="21" t="n">
         <v>5.8</v>
       </c>
@@ -5622,9 +5400,7 @@
       <c r="A53" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="B53" s="17"/>
       <c r="C53" s="18" t="n">
         <v>85.5</v>
       </c>
@@ -5714,69 +5490,27 @@
       <c r="A54" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="I54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="J54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="K54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="L54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="M54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="N54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="O54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="P54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="R54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="S54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="U54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="V54" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
       <c r="W54" s="21" t="n">
         <v>1.5</v>
       </c>
@@ -5806,27 +5540,13 @@
       <c r="A55" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
       <c r="I55" s="18" t="n">
         <v>2.3</v>
       </c>
@@ -5896,7 +5616,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -5920,7 +5640,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
